--- a/DATA_goal/Junction_Flooding_462.xlsx
+++ b/DATA_goal/Junction_Flooding_462.xlsx
@@ -450,7 +450,7 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
@@ -467,7 +467,7 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>44793.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44793.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.84</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.24</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.41</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.02</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.3</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.35</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.32</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.63</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.09</v>
+        <v>60.95</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.88</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.08</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.21</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44793.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.53</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.08</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.36</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.25</v>
+        <v>32.5</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.82</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.89</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.33</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44793.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.8</v>
+        <v>28.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.36</v>
+        <v>23.58</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.57</v>
+        <v>35.68</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.71</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.9</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.44</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.7</v>
+        <v>146.98</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.8</v>
+        <v>28.02</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.94</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.26</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.99</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.18</v>
+        <v>31.83</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_462.xlsx
+++ b/DATA_goal/Junction_Flooding_462.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44793.54861111111</v>
+        <v>45143.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.96</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>9.69</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>3.55</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>48.94</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44793.55555555555</v>
+        <v>45143.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.98</v>
+        <v>4.751</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.81</v>
+        <v>2.968</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.58</v>
+        <v>1.387</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.19</v>
+        <v>10.618</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.84</v>
+        <v>7.407</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.29</v>
+        <v>3.622</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.24</v>
+        <v>17.485</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.41</v>
+        <v>5.817</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.03</v>
+        <v>2.304</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.02</v>
+        <v>3.1</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.3</v>
+        <v>4.085</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.07</v>
+        <v>4.358</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.216</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.32</v>
+        <v>3.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.28</v>
+        <v>5.15</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.6</v>
+        <v>3.604</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.63</v>
+        <v>1.366</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>60.95</v>
+        <v>49.94</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.23</v>
+        <v>10.749</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.88</v>
+        <v>3.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.06</v>
+        <v>6.738</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.88</v>
+        <v>3.408</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.61</v>
+        <v>1.118</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.08</v>
+        <v>8.406000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.06</v>
+        <v>3.065</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.26</v>
+        <v>2.934</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.41</v>
+        <v>3.473</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.43</v>
+        <v>4.003</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>13.21</v>
+        <v>16.597</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.64</v>
+        <v>1.709</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.89</v>
+        <v>4.341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44793.5625</v>
+        <v>45143.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.53</v>
+        <v>3.794</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.81</v>
+        <v>2.481</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.887</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.08</v>
+        <v>8.512</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.38</v>
+        <v>6.084</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.47</v>
+        <v>2.896</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.36</v>
+        <v>12.977</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.72</v>
+        <v>4.654</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.96</v>
+        <v>2.553</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.06</v>
+        <v>3.312</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.97</v>
+        <v>3.554</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.968</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.49</v>
+        <v>3.008</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.72</v>
+        <v>4.112</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.12</v>
+        <v>2.856</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.898</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>32.5</v>
+        <v>38.449</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.2</v>
+        <v>8.468999999999999</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.23</v>
+        <v>2.776</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.82</v>
+        <v>5.336</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.89</v>
+        <v>2.763</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.33</v>
+        <v>6.084</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.72</v>
+        <v>2.452</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.56</v>
+        <v>2.333</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.97</v>
+        <v>2.745</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.2</v>
+        <v>3.274</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.11</v>
+        <v>12.048</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.58</v>
+        <v>1.391</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.83</v>
+        <v>3.471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44793.56944444445</v>
+        <v>45143.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.11</v>
+        <v>18.69</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>13.78</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.61</v>
+        <v>1.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.05</v>
+        <v>40.89</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.58</v>
+        <v>33.07</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.07</v>
+        <v>14.64</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.68</v>
+        <v>52.38</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.45</v>
+        <v>22.69</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.02</v>
+        <v>10.01</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.71</v>
+        <v>14.78</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.4</v>
+        <v>16.33</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.9</v>
+        <v>17.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.23</v>
+        <v>4.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.03</v>
+        <v>14.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.44</v>
+        <v>20.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>12.43</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.78</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>146.98</v>
+        <v>215.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.02</v>
+        <v>40.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>13.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.94</v>
+        <v>27.39</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.26</v>
+        <v>14.39</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.34</v>
+        <v>2.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.42</v>
+        <v>26.16</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.96</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.76</v>
+        <v>10.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.99</v>
+        <v>17.01</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.83</v>
+        <v>47.48</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.49</v>
+        <v>7.57</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.55</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44793.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>34.35</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>28.72</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>47.53</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>181.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.35</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.93</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>14.19</v>
+        <v>16.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_462.xlsx
+++ b/DATA_goal/Junction_Flooding_462.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,29 +448,29 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45143.50694444445</v>
+        <v>44793.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.835</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.791</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.698</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.243</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.166</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.51</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.958</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.033</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.29</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.735</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.533</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.25</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.739</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.655</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.06</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.282</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.096</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>170.025</v>
+        <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.298</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.758</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.812</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.713</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.837</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.288</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.641999999999999</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.303</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.679</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.311</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.418</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.68</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.449</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45143.51388888889</v>
+        <v>44793.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.751</v>
+        <v>5.977</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.968</v>
+        <v>4.813</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.387</v>
+        <v>0.579</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.618</v>
+        <v>12.185</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.407</v>
+        <v>10.838</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.622</v>
+        <v>4.293</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.485</v>
+        <v>15.237</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.817</v>
+        <v>6.408</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.304</v>
+        <v>3.028</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.1</v>
+        <v>5.024</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.085</v>
+        <v>5.3</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.358</v>
+        <v>5.071</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.216</v>
+        <v>1.353</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.76</v>
+        <v>4.316</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.15</v>
+        <v>6.277</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.604</v>
+        <v>3.599</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.366</v>
+        <v>0.626</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.002</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.94</v>
+        <v>60.949</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.749</v>
+        <v>12.227</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.47</v>
+        <v>3.882</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.738</v>
+        <v>8.064</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.408</v>
+        <v>4.877</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.118</v>
+        <v>0.615</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.406000000000001</v>
+        <v>9.079000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.065</v>
+        <v>3.058</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.934</v>
+        <v>4.263</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.473</v>
+        <v>3.409</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.003</v>
+        <v>5.425</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.597</v>
+        <v>13.209</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.709</v>
+        <v>2.64</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.341</v>
+        <v>4.895</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45143.52083333334</v>
+        <v>44793.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.794</v>
+        <v>3.531</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.481</v>
+        <v>2.812</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.887</v>
+        <v>0.357</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.512</v>
+        <v>7.084</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.084</v>
+        <v>6.378</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.896</v>
+        <v>2.468</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.977</v>
+        <v>11.364</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.654</v>
+        <v>3.716</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.87</v>
+        <v>1.811</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.553</v>
+        <v>2.958</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.312</v>
+        <v>3.065</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.554</v>
+        <v>2.971</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.968</v>
+        <v>0.804</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.008</v>
+        <v>2.486</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.112</v>
+        <v>3.718</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.856</v>
+        <v>2.121</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.898</v>
+        <v>0.405</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.449</v>
+        <v>32.504</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.468999999999999</v>
+        <v>7.197</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.776</v>
+        <v>2.23</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.336</v>
+        <v>4.817</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.763</v>
+        <v>2.887</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.354</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.084</v>
+        <v>6.335</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.452</v>
+        <v>1.723</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.333</v>
+        <v>2.563</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.745</v>
+        <v>1.97</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.274</v>
+        <v>3.196</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.048</v>
+        <v>10.112</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.391</v>
+        <v>1.577</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.471</v>
+        <v>2.826</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45143.52777777778</v>
+        <v>44793.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.69</v>
+        <v>13.108</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.78</v>
+        <v>9.946999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.18</v>
+        <v>0.613</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.89</v>
+        <v>28.047</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.07</v>
+        <v>23.582</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.64</v>
+        <v>10.067</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>52.38</v>
+        <v>35.683</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.69</v>
+        <v>15.452</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.01</v>
+        <v>7.017</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.78</v>
+        <v>10.708</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.33</v>
+        <v>11.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.34</v>
+        <v>11.901</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.71</v>
+        <v>3.231</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.66</v>
+        <v>10.034</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.8</v>
+        <v>14.443</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.43</v>
+        <v>8.375</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.399</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.289</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>215.84</v>
+        <v>146.98</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>40.88</v>
+        <v>28.024</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.53</v>
+        <v>9.215999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.39</v>
+        <v>18.941</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.39</v>
+        <v>10.259</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.24</v>
+        <v>1.335</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.16</v>
+        <v>18.421</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.95</v>
+        <v>7.956</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.63</v>
+        <v>7.764</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.5</v>
+        <v>8.366</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.01</v>
+        <v>11.992</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>47.48</v>
+        <v>31.828</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.57</v>
+        <v>5.493</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.92</v>
+        <v>11.553</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44793.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>47.53</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>181.38</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>42.93</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>14.19</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_462.xlsx
+++ b/DATA_goal/Junction_Flooding_462.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,29 +448,29 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
-    <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44793.54861111111</v>
+        <v>45143.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.96</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.926</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.074</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>9.69</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.442</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.413</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.191000000000001</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.526</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.102</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.543</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.171</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>3.55</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.877</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.454</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.766</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.485</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.205</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>48.94</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.632</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.995</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.545</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.641</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.661</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.552</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.905</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.889</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.236</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.485</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.812</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.376</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.752</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44793.55555555555</v>
+        <v>45143.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.977</v>
+        <v>4.751</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.813</v>
+        <v>2.968</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.579</v>
+        <v>1.387</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.185</v>
+        <v>10.618</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.838</v>
+        <v>7.407</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.293</v>
+        <v>3.622</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.237</v>
+        <v>17.485</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.408</v>
+        <v>5.817</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.028</v>
+        <v>2.304</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.024</v>
+        <v>3.1</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.3</v>
+        <v>4.085</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.071</v>
+        <v>4.358</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.353</v>
+        <v>1.216</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.316</v>
+        <v>3.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.277</v>
+        <v>5.15</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.599</v>
+        <v>3.604</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.626</v>
+        <v>1.366</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.002</v>
+        <v>0.68</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>60.949</v>
+        <v>49.94</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.227</v>
+        <v>10.749</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.882</v>
+        <v>3.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.064</v>
+        <v>6.738</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.877</v>
+        <v>3.408</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.615</v>
+        <v>1.118</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.079000000000001</v>
+        <v>8.406000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.058</v>
+        <v>3.065</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.263</v>
+        <v>2.934</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.409</v>
+        <v>3.473</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.425</v>
+        <v>4.003</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.033</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>13.209</v>
+        <v>16.597</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.64</v>
+        <v>1.709</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.895</v>
+        <v>4.341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44793.5625</v>
+        <v>45143.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.531</v>
+        <v>3.794</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.812</v>
+        <v>2.481</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.357</v>
+        <v>0.887</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.084</v>
+        <v>8.512</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.378</v>
+        <v>6.084</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.468</v>
+        <v>2.896</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.364</v>
+        <v>12.977</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.716</v>
+        <v>4.654</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.811</v>
+        <v>1.87</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.958</v>
+        <v>2.553</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.065</v>
+        <v>3.312</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.971</v>
+        <v>3.554</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.804</v>
+        <v>0.968</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.486</v>
+        <v>3.008</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.718</v>
+        <v>4.112</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.121</v>
+        <v>2.856</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.405</v>
+        <v>0.898</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>32.504</v>
+        <v>38.449</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.197</v>
+        <v>8.468999999999999</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.23</v>
+        <v>2.776</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.817</v>
+        <v>5.336</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.887</v>
+        <v>2.763</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.354</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.335</v>
+        <v>6.084</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.723</v>
+        <v>2.452</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.563</v>
+        <v>2.333</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.97</v>
+        <v>2.745</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.196</v>
+        <v>3.274</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.112</v>
+        <v>12.048</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.577</v>
+        <v>1.391</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.826</v>
+        <v>3.471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44793.56944444445</v>
+        <v>45143.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.108</v>
+        <v>18.69</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.946999999999999</v>
+        <v>13.78</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.613</v>
+        <v>1.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.047</v>
+        <v>40.89</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.582</v>
+        <v>33.07</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.067</v>
+        <v>14.64</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.683</v>
+        <v>52.38</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.452</v>
+        <v>22.69</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.017</v>
+        <v>10.01</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.708</v>
+        <v>14.78</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.4</v>
+        <v>16.33</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.901</v>
+        <v>17.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.231</v>
+        <v>4.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.034</v>
+        <v>14.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.443</v>
+        <v>20.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.375</v>
+        <v>12.43</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.399</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.289</v>
+        <v>0.78</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>146.98</v>
+        <v>215.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.024</v>
+        <v>40.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.215999999999999</v>
+        <v>13.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.941</v>
+        <v>27.39</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.259</v>
+        <v>14.39</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.335</v>
+        <v>2.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.421</v>
+        <v>26.16</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.956</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.764</v>
+        <v>10.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.366</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.992</v>
+        <v>17.01</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.828</v>
+        <v>47.48</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.493</v>
+        <v>7.57</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.553</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44793.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>34.35</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>28.72</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>47.53</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>181.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.35</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.93</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>14.19</v>
+        <v>16.92</v>
       </c>
     </row>
   </sheetData>
